--- a/data/trans_orig/P14B24_2016_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2016_2023-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8127</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3961</v>
+        <v>3918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16278</v>
+        <v>15461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01204428280352059</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005869209280143782</v>
+        <v>0.005805957143653285</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02412287522341143</v>
+        <v>0.02291243746095736</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -763,19 +763,19 @@
         <v>35292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24754</v>
+        <v>25318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49524</v>
+        <v>51040</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05245180851807833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03678975874198563</v>
+        <v>0.03762811167227408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07360522933773495</v>
+        <v>0.07585745523952167</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -784,19 +784,19 @@
         <v>43419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31942</v>
+        <v>32681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58568</v>
+        <v>57959</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0322186463792529</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02370218223357224</v>
+        <v>0.02425023322774218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0434596356745901</v>
+        <v>0.04300809210778287</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>666673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>658522</v>
+        <v>659339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670839</v>
+        <v>670882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9879557171964795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9758771247765889</v>
+        <v>0.9770875625390427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941307907198562</v>
+        <v>0.9941940428563467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>633</v>
@@ -834,19 +834,19 @@
         <v>637547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>623315</v>
+        <v>621799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>648085</v>
+        <v>647521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9475481914819217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9263947706622648</v>
+        <v>0.9241425447604784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9632102412580144</v>
+        <v>0.9623718883277259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1277</v>
@@ -855,19 +855,19 @@
         <v>1304220</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1289071</v>
+        <v>1289680</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315697</v>
+        <v>1314958</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9677813536207471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9565403643254097</v>
+        <v>0.9569919078922171</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9762978177664277</v>
+        <v>0.9757497667722578</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>10081</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5046</v>
+        <v>5011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18093</v>
+        <v>17590</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009860033071675257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004934916902779023</v>
+        <v>0.004900848128192339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01769611384411181</v>
+        <v>0.01720402562914525</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -980,19 +980,19 @@
         <v>39555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27617</v>
+        <v>28886</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53250</v>
+        <v>55223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03792700118125602</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02648040926050158</v>
+        <v>0.02769727310878262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05105904165152825</v>
+        <v>0.05295094617004528</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -1001,19 +1001,19 @@
         <v>49636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36889</v>
+        <v>36873</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65387</v>
+        <v>65775</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02403268714565101</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0178607839425299</v>
+        <v>0.01785305843242908</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03165936620509945</v>
+        <v>0.03184723142053941</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1012350</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1004338</v>
+        <v>1004841</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1017385</v>
+        <v>1017420</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9901399669283247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9823038861558882</v>
+        <v>0.9827959743708548</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995065083097221</v>
+        <v>0.9950991518718076</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>941</v>
@@ -1051,19 +1051,19 @@
         <v>1003358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>989663</v>
+        <v>987690</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1015296</v>
+        <v>1014027</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.962072998818744</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9489409583484718</v>
+        <v>0.9470490538299544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9735195907394985</v>
+        <v>0.9723027268912172</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1882</v>
@@ -1072,19 +1072,19 @@
         <v>2015708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1999957</v>
+        <v>1999569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2028455</v>
+        <v>2028471</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.975967312854349</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9683406337949005</v>
+        <v>0.9681527685794608</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9821392160574701</v>
+        <v>0.982146941567571</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>9238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4440</v>
+        <v>4220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16681</v>
+        <v>17375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0121622417580949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005846140428676807</v>
+        <v>0.005555363779402554</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02196186301895332</v>
+        <v>0.02287584365745301</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1197,19 +1197,19 @@
         <v>37315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26699</v>
+        <v>26173</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51472</v>
+        <v>49208</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04753485226209241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03401109038728648</v>
+        <v>0.03334084028883308</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06556913399499018</v>
+        <v>0.06268384178019255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -1218,19 +1218,19 @@
         <v>46553</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35052</v>
+        <v>34795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63621</v>
+        <v>62083</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03014006577082764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02269386733877473</v>
+        <v>0.02252742025178234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04119001053728928</v>
+        <v>0.04019483544872558</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>750314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>742871</v>
+        <v>742177</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>755112</v>
+        <v>755332</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9878377582419051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9780381369810467</v>
+        <v>0.9771241563425472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941538595713232</v>
+        <v>0.9944446362205976</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>702</v>
@@ -1268,19 +1268,19 @@
         <v>747696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>733539</v>
+        <v>735803</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>758312</v>
+        <v>758838</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9524651477379076</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9344308660050099</v>
+        <v>0.9373161582198068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9659889096127136</v>
+        <v>0.9666591597111667</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1389</v>
@@ -1289,19 +1289,19 @@
         <v>1498010</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1480942</v>
+        <v>1482480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1509511</v>
+        <v>1509768</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9698599342291724</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9588099894627107</v>
+        <v>0.9598051645512744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9773061326612252</v>
+        <v>0.9774725797482177</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>9673</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4757</v>
+        <v>4866</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18080</v>
+        <v>17015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01032677239978765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005079097089476779</v>
+        <v>0.005195181756279417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01930217128246157</v>
+        <v>0.01816538369810023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1414,19 +1414,19 @@
         <v>34545</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23205</v>
+        <v>24047</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48977</v>
+        <v>49288</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03309651741235383</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02223211184505891</v>
+        <v>0.02303848037659932</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04692243264648283</v>
+        <v>0.0472202945721291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1435,19 +1435,19 @@
         <v>44218</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32576</v>
+        <v>31002</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59684</v>
+        <v>58675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02232740237352735</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01644871757749609</v>
+        <v>0.01565380596748263</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03013679674621228</v>
+        <v>0.02962692746251087</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>926993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918586</v>
+        <v>919651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931909</v>
+        <v>931800</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9896732276002124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9806978287175384</v>
+        <v>0.9818346163018998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9949209029105233</v>
+        <v>0.9948048182437206</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>929</v>
@@ -1485,19 +1485,19 @@
         <v>1009234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>994802</v>
+        <v>994491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1020574</v>
+        <v>1019732</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9669034825876461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9530775673535171</v>
+        <v>0.9527797054278709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9777678881549411</v>
+        <v>0.9769615196234007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1850</v>
@@ -1506,19 +1506,19 @@
         <v>1936227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1920761</v>
+        <v>1921770</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1947869</v>
+        <v>1949443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9776725976264726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9698632032537878</v>
+        <v>0.9703730725374892</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9835512824225039</v>
+        <v>0.9843461940325177</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>37119</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26988</v>
+        <v>26179</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50787</v>
+        <v>50011</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01093851061833929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007952965379697339</v>
+        <v>0.007714488658332254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01496627704010875</v>
+        <v>0.01473740200981383</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -1631,19 +1631,19 @@
         <v>146707</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122285</v>
+        <v>125085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>174112</v>
+        <v>171797</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0413895551865695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03449938085700111</v>
+        <v>0.03528950579813325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04912126268559613</v>
+        <v>0.04846791593200658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>170</v>
@@ -1652,19 +1652,19 @@
         <v>183826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>158506</v>
+        <v>155261</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>212038</v>
+        <v>212102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02649560900372193</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02284612833615389</v>
+        <v>0.02237838292935024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03056191710510126</v>
+        <v>0.03057112891578916</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3356330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3342662</v>
+        <v>3343438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3366461</v>
+        <v>3367270</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9890614893816607</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9850337229598913</v>
+        <v>0.9852625979901863</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9920470346203027</v>
+        <v>0.9922855113416679</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3205</v>
@@ -1702,19 +1702,19 @@
         <v>3397835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3370430</v>
+        <v>3372745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3422257</v>
+        <v>3419457</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9586104448134305</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.950878737314404</v>
+        <v>0.9515320840679935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9655006191429989</v>
+        <v>0.9647104942018668</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6398</v>
@@ -1723,19 +1723,19 @@
         <v>6754165</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6725953</v>
+        <v>6725889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6779485</v>
+        <v>6782730</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9735043909962781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9694380828948986</v>
+        <v>0.9694288710842109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9771538716638459</v>
+        <v>0.9776216170706498</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>28497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19351</v>
+        <v>20013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41593</v>
+        <v>41710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04125683370342657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02801579002651784</v>
+        <v>0.02897511201305815</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06021775800000114</v>
+        <v>0.06038746761056065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -2088,19 +2088,19 @@
         <v>34680</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27050</v>
+        <v>26152</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45262</v>
+        <v>43647</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04733061466247622</v>
+        <v>0.04733061466247621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03691668829718101</v>
+        <v>0.03569207044771244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06177230880777482</v>
+        <v>0.05956823526513548</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -2109,19 +2109,19 @@
         <v>63177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49174</v>
+        <v>49847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78904</v>
+        <v>78221</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04438335730393547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03454613398866674</v>
+        <v>0.03501906309169282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05543223256291589</v>
+        <v>0.05495260060435023</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>662213</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>649117</v>
+        <v>649000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>671359</v>
+        <v>670697</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9587431662965734</v>
+        <v>0.9587431662965736</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9397822419999993</v>
+        <v>0.939612532389439</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9719842099734821</v>
+        <v>0.9710248879869419</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1177</v>
@@ -2159,19 +2159,19 @@
         <v>698042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>687460</v>
+        <v>689075</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>705672</v>
+        <v>706570</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9526693853375238</v>
+        <v>0.9526693853375237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9382276911922256</v>
+        <v>0.940431764734864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.963083311702819</v>
+        <v>0.9643079295522876</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1878</v>
@@ -2180,19 +2180,19 @@
         <v>1360254</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1344527</v>
+        <v>1345210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1374257</v>
+        <v>1373584</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9556166426960643</v>
+        <v>0.9556166426960645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9445677674370843</v>
+        <v>0.9450473993956501</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9654538660113332</v>
+        <v>0.9649809369083072</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>17357</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10169</v>
+        <v>10813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26686</v>
+        <v>27508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01654783968505394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009695191985065974</v>
+        <v>0.01030841511435211</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02544110786578568</v>
+        <v>0.0262248187499919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -2305,19 +2305,19 @@
         <v>54190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42639</v>
+        <v>43156</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66696</v>
+        <v>69174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05070529202541726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03989722966521506</v>
+        <v>0.04038031476719538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06240651624775473</v>
+        <v>0.06472523757041518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -2326,19 +2326,19 @@
         <v>71547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57751</v>
+        <v>58194</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88358</v>
+        <v>87315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03378633974602401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02727143643133581</v>
+        <v>0.02748050061606976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04172464022687671</v>
+        <v>0.04123203954177628</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1031560</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1022231</v>
+        <v>1021409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1038748</v>
+        <v>1038104</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9834521603149462</v>
+        <v>0.9834521603149461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9745588921342144</v>
+        <v>0.9737751812500082</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903048080149339</v>
+        <v>0.9896915848856481</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1431</v>
@@ -2376,19 +2376,19 @@
         <v>1014538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1002032</v>
+        <v>999554</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1026089</v>
+        <v>1025572</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9492947079745828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9375934837522454</v>
+        <v>0.9352747624295851</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.960102770334785</v>
+        <v>0.9596196852328048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2376</v>
@@ -2397,19 +2397,19 @@
         <v>2046098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2029287</v>
+        <v>2030330</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2059894</v>
+        <v>2059451</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9662136602539761</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9582753597731232</v>
+        <v>0.9587679604582237</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.972728563568664</v>
+        <v>0.9725194993839305</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>19215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11657</v>
+        <v>11813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33866</v>
+        <v>33514</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02407891403417058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01460835967737089</v>
+        <v>0.0148038386200832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0424395742430966</v>
+        <v>0.04199764507012056</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -2522,19 +2522,19 @@
         <v>63251</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50415</v>
+        <v>51829</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77849</v>
+        <v>79956</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07793620848442176</v>
+        <v>0.07793620848442177</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0621199588225882</v>
+        <v>0.06386228148087147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0959233857021162</v>
+        <v>0.09852043463784883</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -2543,19 +2543,19 @@
         <v>82465</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67578</v>
+        <v>67176</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100265</v>
+        <v>102065</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05123484844812073</v>
+        <v>0.05123484844812072</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04198549630650374</v>
+        <v>0.04173599122826988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06229335191431239</v>
+        <v>0.0634119652876235</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>778771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>764120</v>
+        <v>764472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>786329</v>
+        <v>786173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9759210859658295</v>
+        <v>0.9759210859658294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9575604257569029</v>
+        <v>0.958002354929879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985391640322629</v>
+        <v>0.9851961613799166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>961</v>
@@ -2593,19 +2593,19 @@
         <v>748320</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>733722</v>
+        <v>731615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>761156</v>
+        <v>759742</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9220637915155783</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9040766142978841</v>
+        <v>0.9014795653621511</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9378800411774119</v>
+        <v>0.9361377185191284</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1616</v>
@@ -2614,19 +2614,19 @@
         <v>1527092</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1509292</v>
+        <v>1507492</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1541979</v>
+        <v>1542381</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9487651515518793</v>
+        <v>0.9487651515518792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9377066480856876</v>
+        <v>0.9365880347123763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9580145036934964</v>
+        <v>0.9582640087717299</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>31959</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21979</v>
+        <v>22162</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45130</v>
+        <v>45718</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03227974659206046</v>
+        <v>0.03227974659206045</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02219999725606835</v>
+        <v>0.02238419422514229</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04558348664310431</v>
+        <v>0.04617672688710304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -2739,19 +2739,19 @@
         <v>77638</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62784</v>
+        <v>62972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93610</v>
+        <v>94082</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0695118459526099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05621220625377328</v>
+        <v>0.05638032226190042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08381132328672999</v>
+        <v>0.08423382561093637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -2760,19 +2760,19 @@
         <v>109597</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90697</v>
+        <v>91312</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128862</v>
+        <v>129918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05201654346475629</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04304609291647471</v>
+        <v>0.04333802552286031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06115970912251034</v>
+        <v>0.06166124413077976</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>958103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>944932</v>
+        <v>944344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>968083</v>
+        <v>967900</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9677202534079395</v>
+        <v>0.9677202534079394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9544165133568961</v>
+        <v>0.9538232731128968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9778000027439316</v>
+        <v>0.9776158057748574</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1450</v>
@@ -2810,19 +2810,19 @@
         <v>1039271</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1023299</v>
+        <v>1022827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1054125</v>
+        <v>1053937</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9304881540473902</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.91618867671327</v>
+        <v>0.9157661743890636</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9437877937462268</v>
+        <v>0.9436196777380997</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2423</v>
@@ -2831,19 +2831,19 @@
         <v>1997374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1978109</v>
+        <v>1977053</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2016274</v>
+        <v>2015659</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9479834565352439</v>
+        <v>0.947983456535244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9388402908774897</v>
+        <v>0.9383387558692206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9569539070835253</v>
+        <v>0.9566619744771399</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>97027</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76687</v>
+        <v>79309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119760</v>
+        <v>120173</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02750463105231373</v>
+        <v>0.02750463105231374</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02173864881661075</v>
+        <v>0.02248195955556345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03394857835998617</v>
+        <v>0.03406583205990691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>337</v>
@@ -2956,19 +2956,19 @@
         <v>229760</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>203042</v>
+        <v>205419</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>255618</v>
+        <v>255050</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06159888300802914</v>
+        <v>0.06159888300802915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05443581681347748</v>
+        <v>0.05507327230463876</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06853150666453788</v>
+        <v>0.06837921980193296</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>434</v>
@@ -2977,19 +2977,19 @@
         <v>326787</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>298305</v>
+        <v>293209</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>362499</v>
+        <v>358311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04502682629710286</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04110240475625365</v>
+        <v>0.0404003055875718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04994751432828702</v>
+        <v>0.04937048627134535</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3430648</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3407915</v>
+        <v>3407502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3450988</v>
+        <v>3448366</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9724953689476861</v>
+        <v>0.9724953689476863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9660514216400138</v>
+        <v>0.965934167940093</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.978261351183389</v>
+        <v>0.9775180404444366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5019</v>
@@ -3027,19 +3027,19 @@
         <v>3500170</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3474312</v>
+        <v>3474880</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3526888</v>
+        <v>3524511</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9384011169919707</v>
+        <v>0.9384011169919708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9314684933354619</v>
+        <v>0.9316207801980664</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9455641831865224</v>
+        <v>0.9449267276953608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8293</v>
@@ -3048,19 +3048,19 @@
         <v>6930818</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6895106</v>
+        <v>6899294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6959300</v>
+        <v>6964396</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9549731737028971</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.950052485671713</v>
+        <v>0.9506295137286542</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9588975952437462</v>
+        <v>0.959599694412428</v>
       </c>
     </row>
     <row r="18">
